--- a/input_data/data_ground_truth/4_descricao/descricao.xlsx
+++ b/input_data/data_ground_truth/4_descricao/descricao.xlsx
@@ -151,10 +151,10 @@
     <t>Capacidade do sistema socioecológico de se preparar e se ajustar às alterações climáticas ou aos danos climáticos potenciais relacionados à seca, principalmente para diminuir os impactos negativos, aproveitar as oportunidades ou responder às consequências. O Índice de Capacidade Adaptativa é resultante da composição dos indicadores temáticos: logística da produção e abastecimento, planejamento e gestão da segurança alimentar e nutricional, manutenção da produção agropecuária, e capacidade socioeconômica familiar.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;ADGER, W. N. Vulnerability. Global Environmental Change, v. 16, n. 3, p. 268–281, ago. 2006.&lt;br&gt;GALLOPÍN, G. C.. Box 1: A systemic synthesis of the relations between vulnerability, hazard, exposure and impact, aimed at policy identification. In: Economic Commission for Latin American and the Caribbean (ECLAC). Handbook for Estimating the Socio-Economic and Environmental Effects of Disasters. Mexico, D.F.: ECLAC, LC/MEX/G.S., p. 2-5, 2003.&lt;br&gt;GALLOPÍN, G. C.. Linkages between vulnerability, resilience, and adaptive capacity. Global Environmental Change, v. 16, p. 293-303, 2006.&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. Climate Change 2014: Synthesis Report. Working Groups I, II and III to the Fifth Assessment Report of the Intergovernmental Panel on Climate Change [Core Writing Team, R.K. Pachauri and L.A. Meyer (eds.)]. IPCC, Geneva, Switzerland, 151 pp.</t>
   </si>
   <si>
-    <t>Produção e comercialização</t>
+    <t>Produção e Comercialização</t>
   </si>
   <si>
-    <t>Produção e comercialização de alimentos</t>
+    <t>Produção e Comercialização de Alimentos</t>
   </si>
   <si>
     <t>Sensibilidade do sistema socioecológico quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca</t>
@@ -163,10 +163,10 @@
     <t>Sensibilidade do sistema quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca. Essa informação é resultante da composição dos indicadores: baixa produção de alimentos básicos e não diversificação da produção local.&lt;br&gt;&lt;br&gt;Fonte:&lt;br&gt;Sistema de Informações e Análises sobre Impactos das Mudanças Climáticas – AdaptaBrasil MCTI.</t>
   </si>
   <si>
-    <t>Produtores e estabelecimentos agropecuários</t>
+    <t>Produtores e Estabelecimentos Agropecuários</t>
   </si>
   <si>
-    <t>Características dos produtores e dos estabelecimentos agropecuários</t>
+    <t>Características dos Produtores e dos Estabelecimentos Agropecuários</t>
   </si>
   <si>
     <t>Dependência dos estabelecimentos agropecuários aos aspectos que podem expressar a sensibilidade do sistema em situação de seca</t>

--- a/input_data/data_ground_truth/4_descricao/descricao.xlsx
+++ b/input_data/data_ground_truth/4_descricao/descricao.xlsx
@@ -679,7 +679,7 @@
       <c r="X1" s="4"/>
       <c r="Y1" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="171.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="176.25">
       <c r="A2" s="5">
         <v>2</v>
       </c>
@@ -726,7 +726,7 @@
       <c r="X2" s="4"/>
       <c r="Y2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="133.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="137.25">
       <c r="A3" s="7">
         <v>5000</v>
       </c>
@@ -773,7 +773,7 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="145.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="150">
       <c r="A4" s="7">
         <v>5001</v>
       </c>
@@ -820,7 +820,7 @@
       <c r="X4" s="4"/>
       <c r="Y4" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="241.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="242.25">
       <c r="A5" s="7">
         <v>5002</v>
       </c>
@@ -867,7 +867,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="276">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="268.5">
       <c r="A6" s="7">
         <v>5003</v>
       </c>
@@ -914,7 +914,7 @@
       <c r="X6" s="4"/>
       <c r="Y6" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="235.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="228.75">
       <c r="A7" s="7">
         <v>5004</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="X7" s="4"/>
       <c r="Y7" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="235.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="228.75">
       <c r="A8" s="7">
         <v>5005</v>
       </c>
@@ -1008,7 +1008,7 @@
       <c r="X8" s="4"/>
       <c r="Y8" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="100.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="97.5">
       <c r="A9" s="7">
         <v>5006</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="X9" s="4"/>
       <c r="Y9" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="108">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="97.5">
       <c r="A10" s="7">
         <v>5007</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="X10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="189">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="9"/>
@@ -1129,7 +1129,7 @@
       <c r="X11" s="4"/>
       <c r="Y11" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="140.25">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
       <c r="C12" s="9"/>
@@ -1156,7 +1156,7 @@
       <c r="X12" s="4"/>
       <c r="Y12" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="157.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
       <c r="C13" s="9"/>
@@ -1183,7 +1183,7 @@
       <c r="X13" s="4"/>
       <c r="Y13" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="93">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
       <c r="C14" s="9"/>
@@ -1210,7 +1210,7 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="204">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="9"/>
@@ -1237,7 +1237,7 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="134.25">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
@@ -1264,7 +1264,7 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="95.25">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="7"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1291,7 +1291,7 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="72.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="9"/>
@@ -1318,7 +1318,7 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1345,7 +1345,7 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="67.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="7"/>
       <c r="B20" s="7"/>
       <c r="C20" s="9"/>
@@ -1372,7 +1372,7 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="59.25">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="7"/>
       <c r="B21" s="7"/>
       <c r="C21" s="9"/>
@@ -1399,7 +1399,7 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="14.25">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="7"/>
       <c r="B22" s="10"/>
       <c r="C22" s="4"/>
@@ -1426,7 +1426,7 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="4"/>
@@ -1453,7 +1453,7 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="4"/>
@@ -1480,7 +1480,7 @@
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="4"/>
@@ -1507,7 +1507,7 @@
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="4"/>
@@ -1534,7 +1534,7 @@
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="4"/>
@@ -1561,7 +1561,7 @@
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="4"/>
@@ -1588,7 +1588,7 @@
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10"/>
       <c r="C29" s="4"/>
@@ -1615,7 +1615,7 @@
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A30" s="10"/>
       <c r="B30" s="10"/>
       <c r="C30" s="4"/>
@@ -1642,7 +1642,7 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A31" s="10"/>
       <c r="B31" s="10"/>
       <c r="C31" s="4"/>
@@ -1669,7 +1669,7 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A32" s="10"/>
       <c r="B32" s="10"/>
       <c r="C32" s="4"/>
@@ -1696,7 +1696,7 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="4"/>
@@ -1723,7 +1723,7 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A34" s="10"/>
       <c r="B34" s="10"/>
       <c r="C34" s="4"/>
@@ -1750,7 +1750,7 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10"/>
       <c r="C35" s="4"/>
@@ -1777,7 +1777,7 @@
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10"/>
       <c r="C36" s="4"/>
@@ -1804,7 +1804,7 @@
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="4"/>
@@ -1831,7 +1831,7 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10"/>
       <c r="C38" s="4"/>
@@ -1858,7 +1858,7 @@
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10"/>
       <c r="C39" s="4"/>
@@ -1885,7 +1885,7 @@
       <c r="X39" s="4"/>
       <c r="Y39" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10"/>
       <c r="C40" s="4"/>
@@ -1912,7 +1912,7 @@
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10"/>
       <c r="C41" s="4"/>
@@ -1939,7 +1939,7 @@
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10"/>
       <c r="C42" s="4"/>
@@ -1966,7 +1966,7 @@
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10"/>
       <c r="C43" s="4"/>
@@ -1993,7 +1993,7 @@
       <c r="X43" s="4"/>
       <c r="Y43" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A44" s="10"/>
       <c r="B44" s="10"/>
       <c r="C44" s="4"/>
@@ -2020,7 +2020,7 @@
       <c r="X44" s="4"/>
       <c r="Y44" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A45" s="10"/>
       <c r="B45" s="10"/>
       <c r="C45" s="4"/>
@@ -2047,7 +2047,7 @@
       <c r="X45" s="4"/>
       <c r="Y45" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A46" s="10"/>
       <c r="B46" s="10"/>
       <c r="C46" s="4"/>
@@ -2074,7 +2074,7 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A47" s="10"/>
       <c r="B47" s="10"/>
       <c r="C47" s="4"/>
@@ -2101,7 +2101,7 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A48" s="10"/>
       <c r="B48" s="10"/>
       <c r="C48" s="4"/>
@@ -2128,7 +2128,7 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A49" s="10"/>
       <c r="B49" s="10"/>
       <c r="C49" s="4"/>
@@ -2155,7 +2155,7 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10"/>
       <c r="C50" s="4"/>
@@ -2182,7 +2182,7 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A51" s="10"/>
       <c r="B51" s="10"/>
       <c r="C51" s="4"/>
@@ -2209,7 +2209,7 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A52" s="10"/>
       <c r="B52" s="10"/>
       <c r="C52" s="4"/>
@@ -2236,7 +2236,7 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
       <c r="C53" s="4"/>
@@ -2263,7 +2263,7 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A54" s="10"/>
       <c r="B54" s="10"/>
       <c r="C54" s="4"/>
@@ -2290,7 +2290,7 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A55" s="10"/>
       <c r="B55" s="10"/>
       <c r="C55" s="4"/>
@@ -2317,7 +2317,7 @@
       <c r="X55" s="4"/>
       <c r="Y55" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="14.25" customFormat="1" s="1">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75" customFormat="1" s="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10"/>
       <c r="C56" s="4"/>

--- a/input_data/data_ground_truth/4_descricao/descricao.xlsx
+++ b/input_data/data_ground_truth/4_descricao/descricao.xlsx
@@ -197,7 +197,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -664,7 +664,7 @@
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="69">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="87">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -711,7 +711,7 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="48">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60">
       <c r="A3" s="5">
         <v>5000</v>
       </c>
@@ -758,7 +758,7 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="73.5">
       <c r="A4" s="5">
         <v>5001</v>
       </c>
@@ -805,7 +805,7 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="79.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="100.5">
       <c r="A5" s="5">
         <v>5002</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="73.5">
       <c r="A6" s="5">
         <v>5003</v>
       </c>

--- a/input_data/data_ground_truth/4_descricao/descricao.xlsx
+++ b/input_data/data_ground_truth/4_descricao/descricao.xlsx
@@ -55,7 +55,7 @@
     <t>Impactos para segurança alimentar</t>
   </si>
   <si>
-    <t>Consequências esperadas e resultantes das mudanças climáticas em sistemas socioecológicos relacionados à segurança alimentar</t>
+    <t>Consequências esperadas e resultantes das mudanças climáticas em sistemas socioecológicos relacionados à segurança alimentar.</t>
   </si>
   <si>
     <t>São os efeitos sobre vidas, meios de subsistência, saúde, ecossistemas, economias, sociedades, culturas, serviços e infraestrutura, devido a alterações climáticas ou eventos climáticos que se dão dentro de períodos específicos de tempo, de vulnerabilidade e de exposição da sociedade ou sistema, relacionados à segurança alimentar.&lt;br&gt;A Segurança Alimentar e Nutricional (SAN) consiste na realização do direito de todos ao acesso regular e permanente a alimentos de qualidade, em quantidade suficiente, sem comprometer o acesso a outras necessidades essenciais, tendo como base práticas alimentares promotoras de saúde, que respeitem a diversidade cultural e que sejam ambiental, cultural, econômica e socialmente sustentáveis.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;&lt;a href="http://www.planalto.gov.br/ccivil_03/_ato2004-2006/2006/lei/l11346.htm"&gt;BRASIL. LEI Nº 11.346, DE 15 DE SETEMBRO DE 2006. Brasília: 2006.&lt;/a&gt;&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. Climate Change 2014: Synthesis Report. Working Groups I, II and III to the Fifth Assessment Report of the Intergovernmental Panel on Climate Change [Core Writing Team, R.K. Pachauri and L.A. Meyer (eds.)]. IPCC, Geneva, Switzerland, 151 pp.</t>
@@ -73,7 +73,7 @@
     <t>Índice de risco de impacto para seca</t>
   </si>
   <si>
-    <t>Risco de impacto das mudanças climáticas em sistemas socioecológicos, considerando a ameaça climática de seca</t>
+    <t>Risco de impacto das mudanças climáticas em sistemas socioecológicos, considerando a ameaça climática de seca.</t>
   </si>
   <si>
     <t>Risco de impacto das mudanças climáticas em sistemas socioecológicos, resultante da interação entre os eventos climáticos relacionados à seca, vulnerabilidade e exposição desses sistemas. Considera-se seca como um período prolongado — uma estação, um ano ou vários anos — de precipitação deficiente em comparação com a média multianual estatística para uma região que resulta em escassez de água para alguma atividade, grupo ou setor ambiental.&lt;br&gt;&lt;br&gt;Fonte:&lt;br&gt;FOOD AND AGRICULTURE ORGANIZATION/NATIONAL DROUGHT MITIGATION CENTER - FAO/NDMC.The Near East Drought Planning Manual. Food and Agriculture Organization of the United Nations (FAO): Rome: Italy, 2008.</t>
@@ -88,7 +88,7 @@
     <t>Índice de vulnerabilidade</t>
   </si>
   <si>
-    <t>Grau de suscetibilidade de um sistema socioecológico aos efeitos das mudanças climáticas, especificamente aquelas que resultam em seca</t>
+    <t>Grau de suscetibilidade de um sistema socioecológico aos efeitos das mudanças climáticas, especificamente aquelas que resultam em seca.</t>
   </si>
   <si>
     <t>Grau de suscetibilidade a danos, com potencial para mudança ou transformação do sistema socioecológico, quando confrontado com uma ameaça. A vulnerabilidade está associada às situações de sensibilidade e capacidade adaptativa do sistema socioecológico às alterações climáticas (seca). Assim, o Índice de Vulnerabilidade é resultante da composição dos índices de Sensibilidade e Capacidade Adaptativa.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;GALLOPÍN, G. C.. Linkages between vulnerability, resilience, and adaptive capacity. Global Environmental Change, v. 16, p. 293-303, 2006.&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. Climate Change 2014: Synthesis Report. Working Groups I, II and III to the Fifth Assessment Report of the Intergovernmental Panel on Climate Change [Core Writing Team, R.K. Pachauri and L.A. Meyer (eds.)]. IPCC, Geneva, Switzerland, 151 pp.</t>
@@ -100,7 +100,7 @@
     <t>Índice de exposição</t>
   </si>
   <si>
-    <t>Magnitude do contato entre o sistema socioecológico e as ameaças climáticas relacionadas à seca por meio da distribuição de elementos de superfície</t>
+    <t>Magnitude do contato entre o sistema socioecológico e as ameaças climáticas relacionadas à seca por meio da distribuição de elementos de superfície.</t>
   </si>
   <si>
     <t>Grau, duração e/ou extensão em que o sistema está sujeito à ameaça climática (seca), considerando a distribuição de elementos de superfície local (como disponibilidade hídrica, áreas degradadas, potencial agrícola, etc.), resultante da relação entre o sistema e a ameaça climática em questão. A exposição a uma ameaça particular pode ser determinada independentemente da vulnerabilidade. O Índice de Exposição é resultante da composição dos indicadores temáticos: agropecuária e fatores biofísicos, e população exposta e estrutura fundiária.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;ADGER, W. N.. Vulnerability. Global Environmental Change, v. 16, n. 3, p. 268-281, ago. 2006.&lt;br&gt;GALLOPÍN, G. C.. Box 1: A systemic synthesis of the relations between vulnerability, hazard, exposure and impact, aimed at policy identification. In: Economic Commission for Latin American and the Caribbean (ECLAC). Handbook for Estimating the Socio-Economic and Environmental Effects of Disasters. Mexico, D.F.: ECLAC, LC/MEX/G.S., p. 2-5, 2003.&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. Climate Change 2014: Synthesis Report. Working Groups I, II and III to the Fifth Assessment Report of the Intergovernmental Panel on Climate Change [Core Writing Team, R.K. Pachauri and L.A. Meyer (eds.)]. IPCC, Geneva, Switzerland, 151 pp.&lt;br&gt; KASPERSON, J. X.; KASPERSON, R. E.; TURNER II., B. L., SCHILLER, A., HSIEL, W. H.. Vulnerability to global environmental change. In: KASPERSON, J. X.; KASPERSON, R. E. (Eds.), Social Contours of Risk, vol. II. Earthscan, London, 2005. p. 245-285.</t>
@@ -115,7 +115,7 @@
     <t>Índice de ameaça climática</t>
   </si>
   <si>
-    <t>Variações climáticas relacionadas à seca, com base em um intervalo climático normal de 30 anos</t>
+    <t>Variações climáticas relacionadas à seca, com base em um intervalo climático normal de 30 anos.</t>
   </si>
   <si>
     <t>O sistema socioecológico é um dos componentes do sistema terrestre expostos às ameaças climáticas como a seca. Por convenção, o termo ameaça climática no AdaptaBrasil MCTI será utilizado para denotar fatores externos (especificamente climáticos) que interagem com o sistema socioecológico analisado e que possuem capacidade de impactar de forma significativa o sistema, seja de forma lenta ou repentina. O Índice de Ameaça Climática para a seca é resultante da composição do número de dias consecutivos secos e do Índice de Precipitação-Evapotranspiração Padronizado (do acrônimo em inglês Standardized Precipitation-Evapotranspiration Index – SPEI). Devido à utilização de uma faixa de valores do SPEI que expressam padrões de seca (valores inferiores a -0,5), os valores superiores a -0,5 foram desconsiderados e receberam NA (do inglês Not Available ou Não Disponível em tradução livre), visto que os mesmos caracterizam normalidade ou excessos de chuvas quando ponderada a precipitação. No resultado final do índice, os valores NA foram substituídos por 0 (zero), visto que isso representa a ausência de padrões de seca.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;GALLOPÍN, G. C.. Box 1: A systemic synthesis of the relations between vulnerability, hazard, exposure and impact, aimed at policy identification. In: Economic Commission for Latin American and the Caribbean (ECLAC). Handbook for Estimating the Socio-Economic and Environmental Effects of Disasters. Mexico, D.F.: ECLAC, LC/MEX/G.S., p. 2-5, 2003.&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. Climate Change 2014: Synthesis Report. Working Groups I, II and III to the Fifth Assessment Report of the Intergovernmental Panel on Climate Change [Core Writing Team, R.K. Pachauri and L.A. Meyer (eds.)]. IPCC, Geneva, Switzerland, 151 pp.</t>
@@ -130,7 +130,7 @@
     <t>Índice de sensibilidade</t>
   </si>
   <si>
-    <t>Grau em que um sistema socioecológico é potencialmente modificado ou afetado por uma ameaça climática de seca</t>
+    <t>Grau em que um sistema socioecológico é potencialmente modificado ou afetado por uma ameaça climática de seca.</t>
   </si>
   <si>
     <t>Grau em que um sistema socioecológico é potencialmente modificado ou afetado, direta ou indiretamente, adversamente ou beneficamente, por estímulos relacionados ao clima, especificamente à seca. Também pode ser entendido como a razão entre a mudança do sistema socioecológico e a unidade de quantidade de ameaça. A sensibilidade é uma propriedade inerente de um sistema socioecológico, existente antes da ameaça e independentemente da exposição desse sistema. O Índice de Sensibilidade é resultante da composição dos indicadores temáticos: produção e comercialização de alimentos, características dos produtores e dos estabelecimentos agropecuários, e saúde e consumo dos alimentos.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;GALLOPÍN, G. C.. Box 1: A systemic synthesis of the relations between vulnerability, hazard, exposure and impact, aimed at policy identification. In: Economic Commission for Latin American and the Caribbean (ECLAC). Handbook for Estimating the Socio-Economic and Environmental Effects of Disasters. Mexico, D.F.: ECLAC, LC/MEX/G.S., p. 2-5, 2003.&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. CLIMATE CHANGE 2001: impacts, adaptation and vulnerability. Contribution of Working Group II to the Third Assessment Report of the Intergovernmental Panel on Climate Change [[Core Writing Team, J. J. McCartthy; O. F. Canziani; N. A. Leary; D. J. Dokken and K. S. White (eds.)]. IPCC, Cambridge, United Kingdom, 10p.</t>
@@ -145,7 +145,7 @@
     <t>Índice de capacidade adaptativa</t>
   </si>
   <si>
-    <t>Capacidade do sistema socioecológico de se ajustar a possíveis ameaças climáticas de seca</t>
+    <t>Capacidade do sistema socioecológico de se ajustar a possíveis ameaças climáticas de seca.</t>
   </si>
   <si>
     <t>Capacidade do sistema socioecológico de se preparar e se ajustar às alterações climáticas ou aos danos climáticos potenciais relacionados à seca, principalmente para diminuir os impactos negativos, aproveitar as oportunidades ou responder às consequências. O Índice de Capacidade Adaptativa é resultante da composição dos indicadores temáticos: logística da produção e abastecimento, planejamento e gestão da segurança alimentar e nutricional, manutenção da produção agropecuária, e capacidade socioeconômica familiar.&lt;br&gt;&lt;br&gt;Fontes:&lt;br&gt;ADGER, W. N. Vulnerability. Global Environmental Change, v. 16, n. 3, p. 268–281, ago. 2006.&lt;br&gt;GALLOPÍN, G. C.. Box 1: A systemic synthesis of the relations between vulnerability, hazard, exposure and impact, aimed at policy identification. In: Economic Commission for Latin American and the Caribbean (ECLAC). Handbook for Estimating the Socio-Economic and Environmental Effects of Disasters. Mexico, D.F.: ECLAC, LC/MEX/G.S., p. 2-5, 2003.&lt;br&gt;GALLOPÍN, G. C.. Linkages between vulnerability, resilience, and adaptive capacity. Global Environmental Change, v. 16, p. 293-303, 2006.&lt;br&gt;INTERGOVERNMENTAL PANEL ON CLIMATE CHANGE - IPCC. Climate Change 2014: Synthesis Report. Working Groups I, II and III to the Fifth Assessment Report of the Intergovernmental Panel on Climate Change [Core Writing Team, R.K. Pachauri and L.A. Meyer (eds.)]. IPCC, Geneva, Switzerland, 151 pp.</t>
@@ -157,7 +157,7 @@
     <t>Produção e comercialização de alimentos</t>
   </si>
   <si>
-    <t>Sensibilidade do sistema socioecológico quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca</t>
+    <t>Sensibilidade do sistema socioecológico quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca.</t>
   </si>
   <si>
     <t>Sensibilidade do sistema quanto à disponibilidade de alimento e as possíveis limitações na sua comercialização no presente e no futuro considerando uma situação de seca. Essa informação é resultante da composição dos indicadores: baixa produção de alimentos básicos e não diversificação da produção local.&lt;br&gt;&lt;br&gt;Fonte:&lt;br&gt;Sistema de Informações e Análises sobre Impactos das Mudanças Climáticas – AdaptaBrasil MCTI.</t>
@@ -169,7 +169,7 @@
     <t>Características dos produtores e dos estabelecimentos agropecuários</t>
   </si>
   <si>
-    <t>Dependência dos estabelecimentos agropecuários aos aspectos que podem expressar a sensibilidade do sistema em situação de seca</t>
+    <t>Dependência dos estabelecimentos agropecuários aos aspectos que podem expressar a sensibilidade do sistema em situação de seca.</t>
   </si>
   <si>
     <t>Dependência dos estabelecimentos agropecuários aos aspectos que podem expressar a sensibilidade do sistema em situação de seca. Informação resultante da composição dos indicadores: agricultura sem práticas agrícolas sustentáveis, dependência da irrigação em grande escala, uniformidade de receitas da produção agropecuária e analfabetismo do responsável pelo estabelecimento agropecuário.&lt;br&gt;&lt;br&gt;Fonte:&lt;br&gt;Sistema de Informações e Análises sobre Impactos das Mudanças Climáticas - AdaptaBrasil MCTI.</t>
@@ -592,8 +592,8 @@
     <col min="2" max="2" style="8" width="6.433571428571429" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="9" width="51.005" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="9" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="9" width="27.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="31.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="5.433571428571429" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="9" width="126.14785714285713" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="9" width="102.57642857142856" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="8" width="21.576428571428572" customWidth="1" bestFit="1"/>
     <col min="9" max="9" style="8" width="7.719285714285714" customWidth="1" bestFit="1"/>
@@ -899,7 +899,7 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="58.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="73.5">
       <c r="A7" s="5">
         <v>5004</v>
       </c>

--- a/input_data/data_ground_truth/4_descricao/descricao.xlsx
+++ b/input_data/data_ground_truth/4_descricao/descricao.xlsx
@@ -946,7 +946,7 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="79.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="100.5">
       <c r="A8" s="5">
         <v>5005</v>
       </c>
